--- a/data/rrv_volatiles_pca_contribution_table_pca_dat_spme.xlsx
+++ b/data/rrv_volatiles_pca_contribution_table_pca_dat_spme.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,177 +382,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2-Hexen-1-ol, acetate, (E)-</t>
+          <t>Pinene &lt;1R-alpha-&gt;</t>
         </is>
       </c>
       <c r="B2">
-        <v>2.721918978097342e-030</v>
+        <v>0.0002904172400308363</v>
       </c>
       <c r="C2">
-        <v>9.783773727521213e-031</v>
+        <v>0.01235209106121124</v>
       </c>
       <c r="D2">
-        <v>3.430886259965539e-030</v>
+        <v>0.05727563147084424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2-Hexenal</t>
+          <t>Pinene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B3">
-        <v>3.060643263699294e-032</v>
+        <v>0.002915504067785346</v>
       </c>
       <c r="C3">
-        <v>4.551843514956787e-032</v>
+        <v>0.000218316431391504</v>
       </c>
       <c r="D3">
-        <v>7.922030516275574e-033</v>
+        <v>0.1312552456738196</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2-Thujene</t>
+          <t>Pinene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B4">
-        <v>3.90160123978723e-031</v>
+        <v>0.08244107656998355</v>
       </c>
       <c r="C4">
-        <v>1.600277518905049e-031</v>
+        <v>0.5848823120495852</v>
       </c>
       <c r="D4">
-        <v>2.090246300240562e-032</v>
+        <v>0.06422699170663362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2,4,6-Octatriene, 2,6-dimethyl-, (E,Z)-</t>
+          <t>Carene, &lt;3-&gt;</t>
         </is>
       </c>
       <c r="B5">
-        <v>1.491187018019413e-032</v>
+        <v>0.1897397218056238</v>
       </c>
       <c r="C5">
-        <v>3.655627446644771e-034</v>
+        <v>1.241349235825574</v>
       </c>
       <c r="D5">
-        <v>2.653781160601911e-032</v>
+        <v>0.003046754058395542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol Acetate (Z)-</t>
+          <t>Carene &lt;delta-3&gt;</t>
         </is>
       </c>
       <c r="B6">
-        <v>7.06547320952827e-033</v>
+        <v>0.02585415901081644</v>
       </c>
       <c r="C6">
-        <v>2.150963345964487e-031</v>
+        <v>0.003754304621893052</v>
       </c>
       <c r="D6">
-        <v>3.356679544541874e-032</v>
+        <v>2.187434041664978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol, (Z)-</t>
+          <t>Phellandrene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B7">
-        <v>2.910353066560408e-031</v>
+        <v>1.475508118595855e-005</v>
       </c>
       <c r="C7">
-        <v>1.680952305267687e-031</v>
+        <v>8.931205076534668e-005</v>
       </c>
       <c r="D7">
-        <v>2.577027789266538e-033</v>
+        <v>9.122630921947949e-005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5-Hepten-2-one, &lt;6-methyl-&gt;</t>
+          <t>p-Cymene</t>
         </is>
       </c>
       <c r="B8">
-        <v>2.064462209776379e-035</v>
+        <v>0.000707633953833225</v>
       </c>
       <c r="C8">
-        <v>1.082103067895322e-034</v>
+        <v>0.0004177227594046956</v>
       </c>
       <c r="D8">
-        <v>5.739266676876126e-034</v>
+        <v>0.01059817261189804</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acetic acid, hexyl ester</t>
+          <t>D-Limonene</t>
         </is>
       </c>
       <c r="B9">
-        <v>8.390047762753114e-035</v>
+        <v>0.05954828582029784</v>
       </c>
       <c r="C9">
-        <v>3.265665452003806e-033</v>
+        <v>97.83673252805325</v>
       </c>
       <c r="D9">
-        <v>1.829575394812492e-032</v>
+        <v>0.2763698711486141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aromadendrene</t>
+          <t>Limonene oxide, trans-</t>
         </is>
       </c>
       <c r="B10">
-        <v>5.034664774214439e-035</v>
+        <v>7.42570020378881e-010</v>
       </c>
       <c r="C10">
-        <v>1.223036144617912e-033</v>
+        <v>1.492746038477908e-008</v>
       </c>
       <c r="D10">
-        <v>2.403601779548568e-034</v>
+        <v>5.608373975982234e-007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Benzaldehyde &lt;para-ethyl-&gt;</t>
+          <t>Copaene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B11">
-        <v>2.179056877123053e-010</v>
+        <v>0.008548464283888387</v>
       </c>
       <c r="C11">
-        <v>4.826648850377426e-009</v>
+        <v>0.001321180961873651</v>
       </c>
       <c r="D11">
-        <v>3.836122122123848e-008</v>
+        <v>0.06514178275907044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bergamotene &lt;alpha-, cis-&gt;</t>
+          <t>Copaene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B12">
-        <v>1.668203403014251e-009</v>
+        <v>7.490682167507517e-094</v>
       </c>
       <c r="C12">
-        <v>1.369610467857569e-005</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>5.316848797895905e-006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -562,653 +562,157 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.02330420282041232</v>
+        <v>0.02333942268604743</v>
       </c>
       <c r="C13">
-        <v>0.002222815019369332</v>
+        <v>0.003476905490384447</v>
       </c>
       <c r="D13">
-        <v>8.17081929309203e-005</v>
+        <v>0.01488191980689747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cadina-1,4-diene &lt;trans-&gt;</t>
+          <t>Bergamotene &lt;alpha-, cis-&gt;</t>
         </is>
       </c>
       <c r="B14">
-        <v>6.949790517416402e-038</v>
+        <v>2.013652197790455e-009</v>
       </c>
       <c r="C14">
-        <v>6.792679187535618e-036</v>
+        <v>2.0534576389203e-005</v>
       </c>
       <c r="D14">
-        <v>1.015111105345784e-035</v>
+        <v>5.285431917893652e-005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cadinene &lt;delta-&gt;</t>
+          <t>Caryophyllene</t>
         </is>
       </c>
       <c r="B15">
-        <v>5.6011822754014e-035</v>
+        <v>4.066654615158501</v>
       </c>
       <c r="C15">
-        <v>3.860818002594151e-036</v>
+        <v>0.2375004994265061</v>
       </c>
       <c r="D15">
-        <v>8.48357753812404e-036</v>
+        <v>92.9364414869514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Calamenene</t>
+          <t>Caryophyllene oxide</t>
         </is>
       </c>
       <c r="B16">
-        <v>1.43891541816138e-035</v>
+        <v>8.714691171365438e-005</v>
       </c>
       <c r="C16">
-        <v>1.623474877118373e-035</v>
+        <v>0.0002593665989726817</v>
       </c>
       <c r="D16">
-        <v>7.849174908457823e-035</v>
+        <v>0.2138572009378982</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Camphor</t>
+          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
         </is>
       </c>
       <c r="B17">
-        <v>2.225636452705295e-036</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.676397904477594e-036</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>5.654127093530233e-035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carene &lt;delta-3&gt;</t>
+          <t>Murrolene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.02581236957153916</v>
+        <v>0.05718930985671236</v>
       </c>
       <c r="C18">
-        <v>0.002361659946139981</v>
+        <v>0.0007777665321945292</v>
       </c>
       <c r="D18">
-        <v>0.005650551330370159</v>
+        <v>3.70701846143773e-005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carene, &lt;3-&gt;</t>
+          <t>Murrolene &lt;gamma-&gt;</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.1884457449614601</v>
+        <v>95.48217650526063</v>
       </c>
       <c r="C19">
-        <v>0.8673118031342167</v>
+        <v>0.07674111836901683</v>
       </c>
       <c r="D19">
-        <v>18.29201675686247</v>
+        <v>4.033608706531501</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Caryophyllene</t>
+          <t>Muurrolene &lt;gamma-&gt;</t>
         </is>
       </c>
       <c r="B20">
-        <v>4.060390633994527</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1467972099057787</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.444244838753159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
+          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
         </is>
       </c>
       <c r="B21">
-        <v>1.667657175700785e-035</v>
+        <v>0.0004929795367314976</v>
       </c>
       <c r="C21">
-        <v>1.798156813250326e-036</v>
+        <v>0.0001067902641296841</v>
       </c>
       <c r="D21">
-        <v>3.503500735025266e-034</v>
+        <v>0.005680483027660489</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Caryophyllene oxide</t>
+          <t>Farnesene &lt;(E)-, beta-&gt;</t>
         </is>
       </c>
       <c r="B22">
-        <v>8.684274845443459e-005</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0001618566822756996</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>3.270042914465551e-005</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Copaene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>0.008534627615481022</v>
-      </c>
-      <c r="C23">
-        <v>0.000839984697096527</v>
-      </c>
-      <c r="D23">
-        <v>0.002895061601810243</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Copaene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>1.004563807127709e-041</v>
-      </c>
-      <c r="C24">
-        <v>4.800636153456612e-040</v>
-      </c>
-      <c r="D24">
-        <v>2.236946052927512e-037</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cubebene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>0.01802432027591291</v>
-      </c>
-      <c r="C25">
-        <v>0.001425103073412534</v>
-      </c>
-      <c r="D25">
-        <v>0.0005574111690417263</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>D-Limonene</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>0.06366021258936726</v>
-      </c>
-      <c r="C26">
-        <v>67.05216970618621</v>
-      </c>
-      <c r="D26">
-        <v>0.4908402300600951</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Elemene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>7.635542650517807e-064</v>
-      </c>
-      <c r="C27">
-        <v>2.363517442032113e-062</v>
-      </c>
-      <c r="D27">
-        <v>1.798901148117982e-061</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E)-, beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>0.0004918675862407451</v>
-      </c>
-      <c r="C29">
-        <v>6.423920824640884e-005</v>
-      </c>
-      <c r="D29">
-        <v>0.0003925724652889529</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Germacrene D</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Humulene</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Limonene oxide, trans-</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>7.418310550159916e-010</v>
-      </c>
-      <c r="C32">
-        <v>6.199662184502604e-009</v>
-      </c>
-      <c r="D32">
-        <v>4.092546271475267e-007</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mesitylene</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>0.1698367459860782</v>
-      </c>
-      <c r="C33">
-        <v>0.003195511598794913</v>
-      </c>
-      <c r="D33">
-        <v>0.03844189474763508</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Methyl Salicylate</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Murrolene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>0.05704651555714495</v>
-      </c>
-      <c r="C35">
-        <v>0.0007332229880719272</v>
-      </c>
-      <c r="D35">
-        <v>0.0007414800965538547</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Murrolene &lt;gamma-&gt;</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>95.27906049830918</v>
-      </c>
-      <c r="C36">
-        <v>0.09657481014559542</v>
-      </c>
-      <c r="D36">
-        <v>0.131511277682089</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Muurrolene &lt;gamma-&gt;</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Myrcene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Nerolidol</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Nona-1,3,7-triene &lt;4-8-dimethyl-, (E)-&gt;</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;trans-beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>p-Cymene</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>0.0007088275455751042</v>
-      </c>
-      <c r="C43">
-        <v>0.0006443440068409615</v>
-      </c>
-      <c r="D43">
-        <v>0.03595353557935987</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Pentane, 3-ethyl-2,2-dimethyl-</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Phellandrene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>1.465893989914434e-005</v>
-      </c>
-      <c r="C45">
-        <v>6.254163626746276e-005</v>
-      </c>
-      <c r="D45">
-        <v>5.520081343741737e-006</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Pinene &lt;1R-alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>0.0002867092439301272</v>
-      </c>
-      <c r="C46">
-        <v>0.007989031059050888</v>
-      </c>
-      <c r="D46">
-        <v>0.07943762306529958</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Pinene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>0.002911001827812385</v>
-      </c>
-      <c r="C47">
-        <v>0.0001374707351307183</v>
-      </c>
-      <c r="D47">
-        <v>0.0007873404758103954</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Pinene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>0.08187885195784395</v>
-      </c>
-      <c r="C48">
-        <v>0.4065812100914558</v>
-      </c>
-      <c r="D48">
-        <v>2.889756888911506</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Terpineol &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>7.684323159334348e-010</v>
-      </c>
-      <c r="C49">
-        <v>1.009549615126021e-008</v>
-      </c>
-      <c r="D49">
-        <v>4.594711270831316e-007</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Toulene</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>0.001639593342719201</v>
-      </c>
-      <c r="C50">
-        <v>0.02506127875937672</v>
-      </c>
-      <c r="D50">
-        <v>77.40127766645327</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Trivertal</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Xylene &lt;m-&gt;</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>0.01786577173006055</v>
-      </c>
-      <c r="C53">
-        <v>31.38565248390019</v>
-      </c>
-      <c r="D53">
-        <v>0.1853687181070556</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/rrv_volatiles_pca_contribution_table_pca_dat_spme.xlsx
+++ b/data/rrv_volatiles_pca_contribution_table_pca_dat_spme.xlsx
@@ -1,21 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/afife_ufl_edu/Documents/DISSERTATION/MANUSCRIPT/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_8D61FDCE8F79A8D366075C52F33ADAF2C281BD94" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E03C01E-3CC5-4468-A53D-03EF79C9BDC2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>PCA1</t>
+  </si>
+  <si>
+    <t>PCA2</t>
+  </si>
+  <si>
+    <t>PCA3</t>
+  </si>
+  <si>
+    <t>Pinene &lt;1R-alpha-&gt;</t>
+  </si>
+  <si>
+    <t>Pinene &lt;alpha-&gt;</t>
+  </si>
+  <si>
+    <t>Pinene &lt;beta-&gt;</t>
+  </si>
+  <si>
+    <t>Carene, &lt;3-&gt;</t>
+  </si>
+  <si>
+    <t>Carene &lt;delta-3&gt;</t>
+  </si>
+  <si>
+    <t>Phellandrene &lt;beta-&gt;</t>
+  </si>
+  <si>
+    <t>p-Cymene</t>
+  </si>
+  <si>
+    <t>D-Limonene</t>
+  </si>
+  <si>
+    <t>Limonene oxide, trans-</t>
+  </si>
+  <si>
+    <t>Copaene &lt;alpha-&gt;</t>
+  </si>
+  <si>
+    <t>Copaene &lt;beta-&gt;</t>
+  </si>
+  <si>
+    <t>Bourbonene &lt;beta-&gt;</t>
+  </si>
+  <si>
+    <t>Bergamotene &lt;alpha-, cis-&gt;</t>
+  </si>
+  <si>
+    <t>Caryophyllene</t>
+  </si>
+  <si>
+    <t>Caryophyllene oxide</t>
+  </si>
+  <si>
+    <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
+  </si>
+  <si>
+    <t>Murrolene &lt;alpha-&gt;</t>
+  </si>
+  <si>
+    <t>Murrolene &lt;gamma-&gt;</t>
+  </si>
+  <si>
+    <t>Muurrolene &lt;gamma-&gt;</t>
+  </si>
+  <si>
+    <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
+  </si>
+  <si>
+    <t>Farnesene &lt;(E)-, beta-&gt;</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +149,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +235,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +287,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,328 +480,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Chemical</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>PCA1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PCA2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PCA3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pinene &lt;1R-alpha-&gt;</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0002904172400308363</v>
+        <v>95.482176505260625</v>
       </c>
       <c r="C2">
-        <v>0.01235209106121124</v>
+        <v>7.6741118369016828E-2</v>
       </c>
       <c r="D2">
-        <v>0.05727563147084424</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pinene &lt;alpha-&gt;</t>
-        </is>
+        <v>4.0336087065315009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>0.002915504067785346</v>
+        <v>4.0666546151585008</v>
       </c>
       <c r="C3">
-        <v>0.000218316431391504</v>
+        <v>0.23750049942650611</v>
       </c>
       <c r="D3">
+        <v>92.936441486951395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.18973972180562379</v>
+      </c>
+      <c r="C4">
+        <v>1.241349235825574</v>
+      </c>
+      <c r="D4">
+        <v>3.0467540583955419E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>8.2441076569983548E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.58488231204958518</v>
+      </c>
+      <c r="D5">
+        <v>6.4226991706633624E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>5.9548285820297843E-2</v>
+      </c>
+      <c r="C6">
+        <v>97.836732528053247</v>
+      </c>
+      <c r="D6">
+        <v>0.27636987114861411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>5.7189309856712361E-2</v>
+      </c>
+      <c r="C7">
+        <v>7.7776653219452916E-4</v>
+      </c>
+      <c r="D7">
+        <v>3.7070184614377302E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2.585415901081644E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.7543046218930518E-3</v>
+      </c>
+      <c r="D8">
+        <v>2.1874340416649778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2.3339422686047429E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.4769054903844472E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.4881919806897469E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>8.5484642838883872E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.321180961873651E-3</v>
+      </c>
+      <c r="D10">
+        <v>6.5141782759070441E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2.9155040677853461E-3</v>
+      </c>
+      <c r="C11">
+        <v>2.1831643139150401E-4</v>
+      </c>
+      <c r="D11">
         <v>0.1312552456738196</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pinene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>0.08244107656998355</v>
-      </c>
-      <c r="C4">
-        <v>0.5848823120495852</v>
-      </c>
-      <c r="D4">
-        <v>0.06422699170663362</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Carene, &lt;3-&gt;</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>0.1897397218056238</v>
-      </c>
-      <c r="C5">
-        <v>1.241349235825574</v>
-      </c>
-      <c r="D5">
-        <v>0.003046754058395542</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Carene &lt;delta-3&gt;</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>0.02585415901081644</v>
-      </c>
-      <c r="C6">
-        <v>0.003754304621893052</v>
-      </c>
-      <c r="D6">
-        <v>2.187434041664978</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Phellandrene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>1.475508118595855e-005</v>
-      </c>
-      <c r="C7">
-        <v>8.931205076534668e-005</v>
-      </c>
-      <c r="D7">
-        <v>9.122630921947949e-005</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>p-Cymene</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>0.000707633953833225</v>
-      </c>
-      <c r="C8">
-        <v>0.0004177227594046956</v>
-      </c>
-      <c r="D8">
-        <v>0.01059817261189804</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>D-Limonene</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>0.05954828582029784</v>
-      </c>
-      <c r="C9">
-        <v>97.83673252805325</v>
-      </c>
-      <c r="D9">
-        <v>0.2763698711486141</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Limonene oxide, trans-</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>7.42570020378881e-010</v>
-      </c>
-      <c r="C10">
-        <v>1.492746038477908e-008</v>
-      </c>
-      <c r="D10">
-        <v>5.608373975982234e-007</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Copaene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>0.008548464283888387</v>
-      </c>
-      <c r="C11">
-        <v>0.001321180961873651</v>
-      </c>
-      <c r="D11">
-        <v>0.06514178275907044</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Copaene &lt;beta-&gt;</t>
-        </is>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>7.490682167507517e-094</v>
+        <v>7.0763395383322502E-4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4.1772275940469558E-4</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bourbonene &lt;beta-&gt;</t>
-        </is>
+        <v>1.059817261189804E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.02333942268604743</v>
+        <v>4.9297953673149762E-4</v>
       </c>
       <c r="C13">
-        <v>0.003476905490384447</v>
+        <v>1.0679026412968411E-4</v>
       </c>
       <c r="D13">
-        <v>0.01488191980689747</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Bergamotene &lt;alpha-, cis-&gt;</t>
-        </is>
+        <v>5.6804830276604894E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>2.013652197790455e-009</v>
+        <v>2.9041724003083631E-4</v>
       </c>
       <c r="C14">
-        <v>2.0534576389203e-005</v>
+        <v>1.235209106121124E-2</v>
       </c>
       <c r="D14">
-        <v>5.285431917893652e-005</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Caryophyllene</t>
-        </is>
+        <v>5.7275631470844239E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>4.066654615158501</v>
+        <v>8.7146911713654383E-5</v>
       </c>
       <c r="C15">
-        <v>0.2375004994265061</v>
+        <v>2.593665989726817E-4</v>
       </c>
       <c r="D15">
-        <v>92.9364414869514</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Caryophyllene oxide</t>
-        </is>
+        <v>0.2138572009378982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>8.714691171365438e-005</v>
+        <v>1.475508118595855E-5</v>
       </c>
       <c r="C16">
-        <v>0.0002593665989726817</v>
+        <v>8.931205076534668E-5</v>
       </c>
       <c r="D16">
-        <v>0.2138572009378982</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
-        </is>
+        <v>9.1226309219479487E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2.0136521977904548E-9</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2.0534576389202999E-5</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Murrolene &lt;alpha-&gt;</t>
-        </is>
+        <v>5.2854319178936522E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>0.05718930985671236</v>
+        <v>7.4257002037888102E-10</v>
       </c>
       <c r="C18">
-        <v>0.0007777665321945292</v>
+        <v>1.4927460384779079E-8</v>
       </c>
       <c r="D18">
-        <v>3.70701846143773e-005</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Murrolene &lt;gamma-&gt;</t>
-        </is>
+        <v>5.6083739759822339E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>95.48217650526063</v>
+        <v>7.4906821675075173E-94</v>
       </c>
       <c r="C19">
-        <v>0.07674111836901683</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>4.033608706531501</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Muurrolene &lt;gamma-&gt;</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -683,27 +772,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
-        </is>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.0004929795367314976</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0001067902641296841</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.005680483027660489</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E)-, beta-&gt;</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -716,6 +801,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+    <sortCondition descending="1" ref="B2:B22"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>